--- a/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Хи-квадрат_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Хи-квадрат_result.xlsx
@@ -491,7 +491,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="n">
-        <v>12.843</v>
+        <v>12.8431</v>
       </c>
       <c r="D4" t="n">
         <v>0.0121</v>
@@ -606,7 +606,7 @@
         <v>0.9006999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9244</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="13">
@@ -673,7 +673,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>0.724</v>
+        <v>0.7241</v>
       </c>
       <c r="D17" t="n">
         <v>0.9483</v>
